--- a/01_datos/covid_mex_20200325.xlsx
+++ b/01_datos/covid_mex_20200325.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiaguzmanmartinez/covid19_mex/01_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0ED5A1-EE78-C647-83F7-52178B924477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2C879-E06B-0E4C-B2C0-B0B218312AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{29C4F114-1220-0A42-8920-B85B21AB2933}"/>
   </bookViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9688CEFD-0243-0E4F-B63F-F83D436D4C5A}">
   <dimension ref="A1:I476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G465" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I476" sqref="I423:I476"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7953,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="D255" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E255" s="1">
         <v>43899</v>
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E289" s="1">
         <v>43907</v>
